--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -9,7 +9,8 @@
   <sheets>
     <sheet name="Role Scores Statistics" sheetId="1" r:id="rId1"/>
     <sheet name="Chi-square Test Results" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="full coverage group" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="31">
   <si>
     <t>Role</t>
   </si>
@@ -100,33 +101,43 @@
     <t>Significance Level</t>
   </si>
   <si>
+    <t>****</t>
+  </si>
+  <si>
     <t>***</t>
   </si>
   <si>
-    <t>**</t>
-  </si>
-  <si>
-    <t>****</t>
-  </si>
-  <si>
     <t>Yes （%） Difference</t>
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>b (yes→no)</t>
+  </si>
+  <si>
+    <t>c (no→yes)</t>
+  </si>
+  <si>
+    <t>McNemar p-value</t>
+  </si>
+  <si>
+    <t>Groups</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="178" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="0.00000_ "/>
+    <numFmt numFmtId="178" formatCode="0.0000_ "/>
+    <numFmt numFmtId="179" formatCode="0.0%"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -295,12 +306,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -515,15 +532,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -533,6 +541,15 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -639,19 +656,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -660,7 +677,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,16 +701,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -702,120 +719,148 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1174,7 +1219,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1186,22 +1231,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1417,7 +1462,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1428,16 +1473,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="24" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1534,19 +1579,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="F14:I38"/>
+  <dimension ref="F14:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30:I33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="5" width="8.72727272727273" style="1"/>
     <col min="6" max="6" width="47.6363636363636" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.5454545454545" style="1" customWidth="1"/>
-    <col min="8" max="9" width="23.2727272727273" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.72727272727273" style="1"/>
+    <col min="7" max="7" width="16.0909090909091" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.4545454545455" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.2727272727273" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.6363636363636" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.72727272727273" style="1"/>
   </cols>
   <sheetData>
     <row r="14" spans="6:9">
@@ -1567,13 +1614,13 @@
       <c r="F15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="12">
         <v>0.439249999999999</v>
       </c>
-      <c r="H15" s="4">
-        <v>0.00296515616184545</v>
-      </c>
-      <c r="I15" s="10" t="s">
+      <c r="H15" s="13">
+        <v>7.72127296179487e-22</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1581,67 +1628,67 @@
       <c r="F16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="12">
         <v>-0.33825</v>
       </c>
-      <c r="H16" s="4">
-        <v>0.0168342671191703</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>24</v>
+      <c r="H16" s="13">
+        <v>3.64906558849834e-12</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="6:9">
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="15">
         <v>-0.64175</v>
       </c>
-      <c r="H17" s="7">
-        <v>1.67831437798172e-5</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>25</v>
+      <c r="H17" s="16">
+        <v>2.27803151131378e-32</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="7:9">
-      <c r="G18" s="3"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="10"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="6:9">
       <c r="F19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="12">
         <v>0.7775</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="13">
         <v>1.02793654097289e-7</v>
       </c>
-      <c r="I19" s="10" t="s">
-        <v>23</v>
+      <c r="I19" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="6:9">
       <c r="F20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="12">
         <v>0.13575</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="13">
         <v>0.33725586150846</v>
       </c>
-      <c r="I20" s="10"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="30" spans="6:9">
       <c r="F30" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>20</v>
@@ -1654,43 +1701,43 @@
       <c r="F31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="17">
         <f>17/200</f>
         <v>0.085</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="13">
         <v>0.0544269617299867</v>
       </c>
-      <c r="I31" s="10" t="s">
-        <v>27</v>
+      <c r="I31" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="6:9">
       <c r="F32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="17">
         <v>0.085</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="13">
         <v>0.0829829571167576</v>
       </c>
-      <c r="I32" s="10" t="s">
-        <v>27</v>
+      <c r="I32" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="6:9">
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="18">
         <v>0.17</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="16">
         <v>0.000184995079558217</v>
       </c>
-      <c r="I33" s="11" t="s">
-        <v>23</v>
+      <c r="I33" s="23" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="6:9">
@@ -1704,7 +1751,7 @@
         <v>0.0829829571167576</v>
       </c>
       <c r="I36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="6:9">
@@ -1733,6 +1780,428 @@
       </c>
       <c r="I38" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="6:10">
+      <c r="F44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="6:10">
+      <c r="F45" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="20">
+        <v>19</v>
+      </c>
+      <c r="H45" s="20">
+        <v>2</v>
+      </c>
+      <c r="I45" s="13">
+        <v>0.00022125244140625</v>
+      </c>
+      <c r="J45" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="6:10">
+      <c r="F46" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="20">
+        <v>1</v>
+      </c>
+      <c r="H46" s="20">
+        <v>18</v>
+      </c>
+      <c r="I46" s="13">
+        <v>7.62939453125e-5</v>
+      </c>
+      <c r="J46" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="6:10">
+      <c r="F47" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="21">
+        <v>2</v>
+      </c>
+      <c r="H47" s="21">
+        <v>36</v>
+      </c>
+      <c r="I47" s="16">
+        <v>5.3987605497241e-9</v>
+      </c>
+      <c r="J47" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="6:10">
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="22"/>
+    </row>
+    <row r="49" spans="6:10">
+      <c r="F49" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="22">
+        <v>4</v>
+      </c>
+      <c r="H49" s="22">
+        <v>21</v>
+      </c>
+      <c r="I49" s="16">
+        <v>0.000910520553588867</v>
+      </c>
+      <c r="J49" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="6:10">
+      <c r="F50" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" s="22">
+        <v>35</v>
+      </c>
+      <c r="H50" s="22">
+        <v>1</v>
+      </c>
+      <c r="I50" s="16">
+        <v>1.07684172689915e-9</v>
+      </c>
+      <c r="J50" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="6:10">
+      <c r="F51" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="22">
+        <v>11</v>
+      </c>
+      <c r="H51" s="22">
+        <v>11</v>
+      </c>
+      <c r="I51" s="22">
+        <v>1</v>
+      </c>
+      <c r="J51" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D4:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="3" width="8.72727272727273" style="1"/>
+    <col min="4" max="4" width="12.8181818181818" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5454545454545" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.4545454545455" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.8181818181818" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7272727272727" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.72727272727273" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:7">
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.358999999999999</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7">
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.28</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1.19275081134537e-8</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7">
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.34275</v>
+      </c>
+      <c r="F7" s="7">
+        <v>4.36396864815458e-13</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7">
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.2945</v>
+      </c>
+      <c r="F8" s="7">
+        <v>6.04287880185996e-9</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7">
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.36525</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2.90335660765583e-12</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7">
+      <c r="D19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7">
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>5</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.561517589907611</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7">
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="8">
+        <v>8</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.362288202122943</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7">
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="8">
+        <v>12</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.138404517486</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7">
+      <c r="D23" s="1">
+        <v>4</v>
+      </c>
+      <c r="E23" s="8">
+        <v>9</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0.278241274737607</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7">
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+      <c r="E24" s="8">
+        <v>11</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0.204731100255514</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8">
+      <c r="D31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8">
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+      <c r="E32" s="10">
+        <v>7</v>
+      </c>
+      <c r="F32" s="10">
+        <v>2</v>
+      </c>
+      <c r="G32" s="10">
+        <v>0.1796875</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8">
+      <c r="D33" s="6">
+        <v>2</v>
+      </c>
+      <c r="E33" s="10">
+        <v>11</v>
+      </c>
+      <c r="F33" s="10">
+        <v>3</v>
+      </c>
+      <c r="G33" s="10">
+        <v>0.057373046875</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8">
+      <c r="D34" s="6">
+        <v>3</v>
+      </c>
+      <c r="E34" s="10">
+        <v>16</v>
+      </c>
+      <c r="F34" s="10">
+        <v>4</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0.0118179321289062</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8">
+      <c r="D35" s="6">
+        <v>4</v>
+      </c>
+      <c r="E35" s="10">
+        <v>12</v>
+      </c>
+      <c r="F35" s="10">
+        <v>3</v>
+      </c>
+      <c r="G35" s="10">
+        <v>0.03515625</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8">
+      <c r="D36" s="6">
+        <v>5</v>
+      </c>
+      <c r="E36" s="10">
+        <v>11</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0.0009765625</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
